--- a/fixtures/output/01043110000366247_acute_chem_pop.xlsx
+++ b/fixtures/output/01043110000366247_acute_chem_pop.xlsx
@@ -132,10 +132,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -161,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -469,85 +478,85 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/fixtures/output/01043110000366247_acute_chem_pop.xlsx
+++ b/fixtures/output/01043110000366247_acute_chem_pop.xlsx
@@ -565,7 +565,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390476381918</v>
+        <v>0.390602623562</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>0.331536550685</v>
+        <v>0.331643736986</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -731,7 +731,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4637971748</v>
+        <v>11.4675034389</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>

--- a/fixtures/output/01043110000366247_acute_chem_pop.xlsx
+++ b/fixtures/output/01043110000366247_acute_chem_pop.xlsx
@@ -19,10 +19,10 @@
     <t>Pollutant</t>
   </si>
   <si>
-    <t>Conc (µg/m3)</t>
-  </si>
-  <si>
-    <t>Conc sci (µg/m3)</t>
+    <t>Conc (ug/m3)</t>
+  </si>
+  <si>
+    <t>Conc sci (ug/m3)</t>
   </si>
   <si>
     <t>Aegl_1 1hr (mg/m3)</t>
